--- a/CBD/INV1 - Document_Lines1.xlsx
+++ b/CBD/INV1 - Document_Lines1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIREC104\Desktop\AR Invoice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 FILES!!\03 Trainings\Internal\Sept 2021\GIT\GitTest\CBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2234,7 +2234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="217">
   <si>
     <t>ParentKey</t>
   </si>
@@ -2879,6 +2879,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>UDF</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
   </si>
 </sst>
 </file>
@@ -3271,10 +3277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DX134"/>
+  <dimension ref="A1:DY134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="DY53" sqref="DY53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="DY2" sqref="DY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3290,7 +3296,7 @@
     <col min="65" max="128" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3675,8 +3681,11 @@
       <c r="DX1" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY1" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4061,8 +4070,9 @@
       <c r="DX2" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY2" s="2"/>
+    </row>
+    <row r="3" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4087,8 +4097,11 @@
       <c r="BL3">
         <v>29057.599999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY3" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4113,8 +4126,11 @@
       <c r="BL4">
         <v>17658.080000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY4" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4139,8 +4155,11 @@
       <c r="BL5">
         <v>289338.19</v>
       </c>
-    </row>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY5" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4165,8 +4184,11 @@
       <c r="BL6">
         <v>126.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY6" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4191,8 +4213,11 @@
       <c r="BL7">
         <v>289072.58</v>
       </c>
-    </row>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY7" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4217,8 +4242,11 @@
       <c r="BL8">
         <v>319149.93</v>
       </c>
-    </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY8" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4243,8 +4271,11 @@
       <c r="BL9">
         <v>270429.28999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY9" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4269,8 +4300,11 @@
       <c r="BL10">
         <v>264034.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY10" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4295,8 +4329,11 @@
       <c r="BL11">
         <v>276962.78000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY11" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4321,8 +4358,11 @@
       <c r="BL12">
         <v>245200.85</v>
       </c>
-    </row>
-    <row r="13" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY12" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4347,8 +4387,11 @@
       <c r="BL13">
         <v>514233.49</v>
       </c>
-    </row>
-    <row r="14" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY13" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4373,8 +4416,11 @@
       <c r="BL14">
         <v>273312.02</v>
       </c>
-    </row>
-    <row r="15" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY14" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4399,8 +4445,11 @@
       <c r="BL15">
         <v>371316.92</v>
       </c>
-    </row>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="DY15" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4425,8 +4474,11 @@
       <c r="BL16">
         <v>35.72</v>
       </c>
-    </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY16" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4451,8 +4503,11 @@
       <c r="BL17">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY17" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4477,8 +4532,11 @@
       <c r="BL18">
         <v>6534</v>
       </c>
-    </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY18" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4503,8 +4561,11 @@
       <c r="BL19">
         <v>192035.57</v>
       </c>
-    </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY19" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4529,8 +4590,11 @@
       <c r="BL20">
         <v>21799.53</v>
       </c>
-    </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY20" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4555,8 +4619,11 @@
       <c r="BL21">
         <v>23750.639999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY21" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>23</v>
       </c>
@@ -4581,8 +4648,11 @@
       <c r="BL22">
         <v>113927.67999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY22" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24</v>
       </c>
@@ -4607,8 +4677,11 @@
       <c r="BL23">
         <v>47.92</v>
       </c>
-    </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY23" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25</v>
       </c>
@@ -4633,8 +4706,11 @@
       <c r="BL24">
         <v>4.3600000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY24" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>26</v>
       </c>
@@ -4659,8 +4735,11 @@
       <c r="BL25">
         <v>1233275.48</v>
       </c>
-    </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY25" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>27</v>
       </c>
@@ -4685,8 +4764,11 @@
       <c r="BL26">
         <v>1119143.33</v>
       </c>
-    </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY26" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28</v>
       </c>
@@ -4711,8 +4793,11 @@
       <c r="BL27">
         <v>5500</v>
       </c>
-    </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY27" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>29</v>
       </c>
@@ -4737,8 +4822,11 @@
       <c r="BL28">
         <v>26400</v>
       </c>
-    </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY28" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -4763,8 +4851,11 @@
       <c r="BL29">
         <v>19800</v>
       </c>
-    </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY29" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31</v>
       </c>
@@ -4789,8 +4880,11 @@
       <c r="BL30">
         <v>5500</v>
       </c>
-    </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY30" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>32</v>
       </c>
@@ -4815,8 +4909,11 @@
       <c r="BL31">
         <v>60729.86</v>
       </c>
-    </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY31" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33</v>
       </c>
@@ -4841,8 +4938,11 @@
       <c r="BL32">
         <v>340237.07</v>
       </c>
-    </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY32" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>34</v>
       </c>
@@ -4867,8 +4967,11 @@
       <c r="BL33">
         <v>13200</v>
       </c>
-    </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY33" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>35</v>
       </c>
@@ -4893,8 +4996,11 @@
       <c r="BL34">
         <v>5500</v>
       </c>
-    </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY34" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>36</v>
       </c>
@@ -4919,8 +5025,11 @@
       <c r="BL35">
         <v>515859.94</v>
       </c>
-    </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY35" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>37</v>
       </c>
@@ -4945,8 +5054,11 @@
       <c r="BL36">
         <v>608964.93000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY36" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>38</v>
       </c>
@@ -4971,8 +5083,11 @@
       <c r="BL37">
         <v>1067644.72</v>
       </c>
-    </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY37" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>39</v>
       </c>
@@ -4997,8 +5112,11 @@
       <c r="BL38">
         <v>2130257.16</v>
       </c>
-    </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY38" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>40</v>
       </c>
@@ -5023,8 +5141,11 @@
       <c r="BL39">
         <v>2586703.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY39" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>41</v>
       </c>
@@ -5049,8 +5170,11 @@
       <c r="BL40">
         <v>1150965.6299999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY40" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>42</v>
       </c>
@@ -5075,8 +5199,11 @@
       <c r="BL41">
         <v>355286.25</v>
       </c>
-    </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY41" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>43</v>
       </c>
@@ -5101,8 +5228,11 @@
       <c r="BL42">
         <v>31794.44</v>
       </c>
-    </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY42" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>44</v>
       </c>
@@ -5127,8 +5257,11 @@
       <c r="BL43">
         <v>292472.73</v>
       </c>
-    </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY43" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>45</v>
       </c>
@@ -5153,8 +5286,11 @@
       <c r="BL44">
         <v>161063.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY44" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>46</v>
       </c>
@@ -5179,8 +5315,11 @@
       <c r="BL45">
         <v>6150.67</v>
       </c>
-    </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY45" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>47</v>
       </c>
@@ -5205,8 +5344,11 @@
       <c r="BL46">
         <v>1475.87</v>
       </c>
-    </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY46" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>48</v>
       </c>
@@ -5231,8 +5373,11 @@
       <c r="BL47">
         <v>2814.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY47" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>49</v>
       </c>
@@ -5257,8 +5402,11 @@
       <c r="BL48">
         <v>4317.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY48" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>50</v>
       </c>
@@ -5283,8 +5431,11 @@
       <c r="BL49">
         <v>294.25</v>
       </c>
-    </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY49" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>51</v>
       </c>
@@ -5309,8 +5460,11 @@
       <c r="BL50">
         <v>1147.74</v>
       </c>
-    </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY50" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>52</v>
       </c>
@@ -5335,8 +5489,11 @@
       <c r="BL51">
         <v>2633.29</v>
       </c>
-    </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY51" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>53</v>
       </c>
@@ -5361,8 +5518,11 @@
       <c r="BL52">
         <v>60.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY52" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>54</v>
       </c>
@@ -5387,8 +5547,11 @@
       <c r="BL53">
         <v>1104863.69</v>
       </c>
-    </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY53" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>55</v>
       </c>
@@ -5413,8 +5576,11 @@
       <c r="BL54">
         <v>1073899.3700000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY54" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>58</v>
       </c>
@@ -5439,8 +5605,11 @@
       <c r="BL55">
         <v>98111.98</v>
       </c>
-    </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY55" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>59</v>
       </c>
@@ -5465,8 +5634,11 @@
       <c r="BL56">
         <v>172.48</v>
       </c>
-    </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY56" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>60</v>
       </c>
@@ -5491,8 +5663,11 @@
       <c r="BL57">
         <v>53228.05</v>
       </c>
-    </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY57" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>61</v>
       </c>
@@ -5517,8 +5692,11 @@
       <c r="BL58">
         <v>8186.11</v>
       </c>
-    </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY58" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>62</v>
       </c>
@@ -5543,8 +5721,11 @@
       <c r="BL59">
         <v>7662.42</v>
       </c>
-    </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY59" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>63</v>
       </c>
@@ -5569,8 +5750,11 @@
       <c r="BL60">
         <v>210040.92</v>
       </c>
-    </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY60" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>64</v>
       </c>
@@ -5595,8 +5779,11 @@
       <c r="BL61">
         <v>2005.69</v>
       </c>
-    </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY61" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>65</v>
       </c>
@@ -5621,8 +5808,11 @@
       <c r="BL62">
         <v>85133.18</v>
       </c>
-    </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY62" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>66</v>
       </c>
@@ -5647,8 +5837,11 @@
       <c r="BL63">
         <v>28616.21</v>
       </c>
-    </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY63" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>67</v>
       </c>
@@ -5673,8 +5866,11 @@
       <c r="BL64">
         <v>21282.28</v>
       </c>
-    </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY64" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>68</v>
       </c>
@@ -5699,8 +5895,11 @@
       <c r="BL65">
         <v>2.17</v>
       </c>
-    </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY65" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>69</v>
       </c>
@@ -5725,8 +5924,11 @@
       <c r="BL66">
         <v>57710.400000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY66" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>70</v>
       </c>
@@ -5751,8 +5953,11 @@
       <c r="BL67">
         <v>9290.15</v>
       </c>
-    </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY67" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>71</v>
       </c>
@@ -5777,8 +5982,11 @@
       <c r="BL68">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY68" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>72</v>
       </c>
@@ -5803,8 +6011,11 @@
       <c r="BL69">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY69" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>73</v>
       </c>
@@ -5829,8 +6040,11 @@
       <c r="BL70">
         <v>7025.41</v>
       </c>
-    </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY70" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>74</v>
       </c>
@@ -5855,8 +6069,11 @@
       <c r="BL71">
         <v>1822.57</v>
       </c>
-    </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY71" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>75</v>
       </c>
@@ -5881,8 +6098,11 @@
       <c r="BL72">
         <v>1685.79</v>
       </c>
-    </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY72" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>76</v>
       </c>
@@ -5907,8 +6127,11 @@
       <c r="BL73">
         <v>323.27999999999997</v>
       </c>
-    </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY73" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>77</v>
       </c>
@@ -5933,8 +6156,11 @@
       <c r="BL74">
         <v>133070.88</v>
       </c>
-    </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY74" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>78</v>
       </c>
@@ -5959,8 +6185,11 @@
       <c r="BL75">
         <v>236.14</v>
       </c>
-    </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY75" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>79</v>
       </c>
@@ -5985,8 +6214,11 @@
       <c r="BL76">
         <v>28020.639999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY76" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>80</v>
       </c>
@@ -6011,8 +6243,11 @@
       <c r="BL77">
         <v>11762.51</v>
       </c>
-    </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY77" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>81</v>
       </c>
@@ -6037,8 +6272,11 @@
       <c r="BL78">
         <v>59393.01</v>
       </c>
-    </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY78" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>82</v>
       </c>
@@ -6063,8 +6301,11 @@
       <c r="BL79">
         <v>15227.93</v>
       </c>
-    </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY79" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>83</v>
       </c>
@@ -6089,8 +6330,11 @@
       <c r="BL80">
         <v>433249.46</v>
       </c>
-    </row>
-    <row r="81" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY80" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>84</v>
       </c>
@@ -6115,8 +6359,11 @@
       <c r="BL81">
         <v>8905.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY81" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>85</v>
       </c>
@@ -6141,8 +6388,11 @@
       <c r="BL82">
         <v>487.43</v>
       </c>
-    </row>
-    <row r="83" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY82" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>86</v>
       </c>
@@ -6167,8 +6417,11 @@
       <c r="BL83">
         <v>32022.26</v>
       </c>
-    </row>
-    <row r="84" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY83" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>87</v>
       </c>
@@ -6193,8 +6446,11 @@
       <c r="BL84">
         <v>107291.77</v>
       </c>
-    </row>
-    <row r="85" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY84" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>88</v>
       </c>
@@ -6219,8 +6475,11 @@
       <c r="BL85">
         <v>374032.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY85" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>89</v>
       </c>
@@ -6245,8 +6504,11 @@
       <c r="BL86">
         <v>52896.97</v>
       </c>
-    </row>
-    <row r="87" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY86" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>90</v>
       </c>
@@ -6271,8 +6533,11 @@
       <c r="BL87">
         <v>21318.880000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY87" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>91</v>
       </c>
@@ -6297,8 +6562,11 @@
       <c r="BL88">
         <v>3020.16</v>
       </c>
-    </row>
-    <row r="89" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY88" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>92</v>
       </c>
@@ -6323,8 +6591,11 @@
       <c r="BL89">
         <v>35877.760000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY89" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>93</v>
       </c>
@@ -6349,8 +6620,11 @@
       <c r="BL90">
         <v>157096.79999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY90" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>94</v>
       </c>
@@ -6375,8 +6649,11 @@
       <c r="BL91">
         <v>6237.1</v>
       </c>
-    </row>
-    <row r="92" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY91" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>95</v>
       </c>
@@ -6401,8 +6678,11 @@
       <c r="BL92">
         <v>5925.92</v>
       </c>
-    </row>
-    <row r="93" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY92" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>96</v>
       </c>
@@ -6427,8 +6707,11 @@
       <c r="BL93">
         <v>13200</v>
       </c>
-    </row>
-    <row r="94" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY93" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>97</v>
       </c>
@@ -6453,8 +6736,11 @@
       <c r="BL94">
         <v>93500</v>
       </c>
-    </row>
-    <row r="95" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY94" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>98</v>
       </c>
@@ -6479,8 +6765,11 @@
       <c r="BL95">
         <v>85557.93</v>
       </c>
-    </row>
-    <row r="96" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY95" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>99</v>
       </c>
@@ -6505,8 +6794,11 @@
       <c r="BL96">
         <v>34692.92</v>
       </c>
-    </row>
-    <row r="97" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY96" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="97" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>100</v>
       </c>
@@ -6531,8 +6823,11 @@
       <c r="BL97">
         <v>71500</v>
       </c>
-    </row>
-    <row r="98" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY97" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>101</v>
       </c>
@@ -6557,8 +6852,11 @@
       <c r="BL98">
         <v>16500</v>
       </c>
-    </row>
-    <row r="99" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY98" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>102</v>
       </c>
@@ -6583,8 +6881,11 @@
       <c r="BL99">
         <v>6600</v>
       </c>
-    </row>
-    <row r="100" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY99" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>103</v>
       </c>
@@ -6609,8 +6910,11 @@
       <c r="BL100">
         <v>166022.84</v>
       </c>
-    </row>
-    <row r="101" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY100" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>104</v>
       </c>
@@ -6635,8 +6939,11 @@
       <c r="BL101">
         <v>35650.81</v>
       </c>
-    </row>
-    <row r="102" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY101" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>105</v>
       </c>
@@ -6661,8 +6968,11 @@
       <c r="BL102">
         <v>65601.100000000006</v>
       </c>
-    </row>
-    <row r="103" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY102" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>106</v>
       </c>
@@ -6687,8 +6997,11 @@
       <c r="BL103">
         <v>1121.58</v>
       </c>
-    </row>
-    <row r="104" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY103" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>107</v>
       </c>
@@ -6713,8 +7026,11 @@
       <c r="BL104">
         <v>77000</v>
       </c>
-    </row>
-    <row r="105" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY104" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>108</v>
       </c>
@@ -6739,8 +7055,11 @@
       <c r="BL105">
         <v>6600</v>
       </c>
-    </row>
-    <row r="106" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY105" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>109</v>
       </c>
@@ -6765,8 +7084,11 @@
       <c r="BL106">
         <v>30635.75</v>
       </c>
-    </row>
-    <row r="107" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY106" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>110</v>
       </c>
@@ -6791,8 +7113,11 @@
       <c r="BL107">
         <v>20479.36</v>
       </c>
-    </row>
-    <row r="108" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY107" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>111</v>
       </c>
@@ -6817,8 +7142,11 @@
       <c r="BL108">
         <v>58944.160000000003</v>
       </c>
-    </row>
-    <row r="109" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY108" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>112</v>
       </c>
@@ -6843,8 +7171,11 @@
       <c r="BL109">
         <v>11968</v>
       </c>
-    </row>
-    <row r="110" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY109" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>113</v>
       </c>
@@ -6869,8 +7200,11 @@
       <c r="BL110">
         <v>94605.14</v>
       </c>
-    </row>
-    <row r="111" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY110" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>114</v>
       </c>
@@ -6895,8 +7229,11 @@
       <c r="BL111">
         <v>957035.44</v>
       </c>
-    </row>
-    <row r="112" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY111" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>115</v>
       </c>
@@ -6921,8 +7258,11 @@
       <c r="BL112">
         <v>99572.13</v>
       </c>
-    </row>
-    <row r="113" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY112" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>116</v>
       </c>
@@ -6947,8 +7287,11 @@
       <c r="BL113">
         <v>58079.92</v>
       </c>
-    </row>
-    <row r="114" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY113" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>117</v>
       </c>
@@ -6973,8 +7316,11 @@
       <c r="BL114">
         <v>93445.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY114" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>118</v>
       </c>
@@ -6999,8 +7345,11 @@
       <c r="BL115">
         <v>94638.15</v>
       </c>
-    </row>
-    <row r="116" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY115" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>119</v>
       </c>
@@ -7025,8 +7374,11 @@
       <c r="BL116">
         <v>381220.12</v>
       </c>
-    </row>
-    <row r="117" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY116" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>120</v>
       </c>
@@ -7051,8 +7403,11 @@
       <c r="BL117">
         <v>613899.07999999996</v>
       </c>
-    </row>
-    <row r="118" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY117" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>121</v>
       </c>
@@ -7077,8 +7432,11 @@
       <c r="BL118">
         <v>627234.39</v>
       </c>
-    </row>
-    <row r="119" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY118" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>122</v>
       </c>
@@ -7103,8 +7461,11 @@
       <c r="BL119">
         <v>500507.33</v>
       </c>
-    </row>
-    <row r="120" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY119" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>123</v>
       </c>
@@ -7129,8 +7490,11 @@
       <c r="BL120">
         <v>16284.04</v>
       </c>
-    </row>
-    <row r="121" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY120" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>124</v>
       </c>
@@ -7155,8 +7519,11 @@
       <c r="BL121">
         <v>19131.55</v>
       </c>
-    </row>
-    <row r="122" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY121" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>125</v>
       </c>
@@ -7181,8 +7548,11 @@
       <c r="BL122">
         <v>67818.12</v>
       </c>
-    </row>
-    <row r="123" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY122" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>126</v>
       </c>
@@ -7207,8 +7577,11 @@
       <c r="BL123">
         <v>84634.9</v>
       </c>
-    </row>
-    <row r="124" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY123" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>127</v>
       </c>
@@ -7233,8 +7606,11 @@
       <c r="BL124">
         <v>17.420000000000002</v>
       </c>
-    </row>
-    <row r="125" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY124" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>128</v>
       </c>
@@ -7259,8 +7635,11 @@
       <c r="BL125">
         <v>51071.43</v>
       </c>
-    </row>
-    <row r="126" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY125" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="126" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>129</v>
       </c>
@@ -7285,8 +7664,11 @@
       <c r="BL126">
         <v>53</v>
       </c>
-    </row>
-    <row r="127" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY126" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>130</v>
       </c>
@@ -7311,8 +7693,11 @@
       <c r="BL127">
         <v>165024.22</v>
       </c>
-    </row>
-    <row r="128" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY127" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>131</v>
       </c>
@@ -7337,8 +7722,11 @@
       <c r="BL128">
         <v>26767.78</v>
       </c>
-    </row>
-    <row r="129" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY128" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>132</v>
       </c>
@@ -7363,8 +7751,11 @@
       <c r="BL129">
         <v>3937.87</v>
       </c>
-    </row>
-    <row r="130" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY129" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="130" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>133</v>
       </c>
@@ -7389,8 +7780,11 @@
       <c r="BL130">
         <v>114.85</v>
       </c>
-    </row>
-    <row r="131" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY130" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="131" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>134</v>
       </c>
@@ -7415,8 +7809,11 @@
       <c r="BL131">
         <v>706.2</v>
       </c>
-    </row>
-    <row r="132" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY131" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="132" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>135</v>
       </c>
@@ -7441,8 +7838,11 @@
       <c r="BL132">
         <v>2020991.39</v>
       </c>
-    </row>
-    <row r="133" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY132" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="133" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>136</v>
       </c>
@@ -7467,8 +7867,11 @@
       <c r="BL133">
         <v>588062.16</v>
       </c>
-    </row>
-    <row r="134" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="DY133" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="134" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>137</v>
       </c>
@@ -7492,6 +7895,9 @@
       </c>
       <c r="BL134">
         <v>3300</v>
+      </c>
+      <c r="DY134" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
